--- a/Measurement_Results/TEM/1.24.xlsx
+++ b/Measurement_Results/TEM/1.24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Pop 1</t>
+  </si>
+  <si>
+    <t>Pop2</t>
   </si>
 </sst>
 </file>
@@ -341,666 +347,1472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>13.503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.3620000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>13.722</v>
+        <v>3.8090000000000002</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>AVERAGE(A2:A127)</f>
-        <v>19.073087301587289</v>
-      </c>
-      <c r="E3">
-        <f>STDEV(A2:A127)</f>
-        <v>2.6341649425041558</v>
-      </c>
-      <c r="F3">
-        <f>E3/SQRT(126)</f>
-        <v>0.23467006464527687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>14.255000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.6849999999999996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(A1:A12)</f>
+        <v>5.1558333333333328</v>
+      </c>
+      <c r="E4">
+        <f>STDEV(A1:A12)</f>
+        <v>1.6811447849244838</v>
+      </c>
+      <c r="F4">
+        <f>E4/SQRT(G4)</f>
+        <v>0.48530469706144314</v>
+      </c>
+      <c r="G4">
+        <f>COUNT(A1:A12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>14.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.03</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(A14:A283)</f>
+        <v>18.902922222222234</v>
+      </c>
+      <c r="E5">
+        <f>STDEV(A14:A283)</f>
+        <v>2.6309801680144509</v>
+      </c>
+      <c r="F5">
+        <f>E5/SQRT(G5)</f>
+        <v>0.16011635404113853</v>
+      </c>
+      <c r="G5">
+        <f>COUNT(A14:A283)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15.154999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.3869999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>15.387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15.484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>15.484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.0380000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>15.628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15.699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.4550000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>15.711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.7869999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>15.958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.510999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>16.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16.085999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.180999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16.109000000000002</v>
+        <v>13.503</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16.132000000000001</v>
+        <v>13.707000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16.132000000000001</v>
+        <v>13.722</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16.167000000000002</v>
+        <v>13.801</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16.282</v>
+        <v>14.255000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16.315999999999999</v>
+        <v>14.497999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>16.361999999999998</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>16.407</v>
+        <v>15.015000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>16.565999999999999</v>
+        <v>15.114000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16.611000000000001</v>
+        <v>15.154999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16.632999999999999</v>
+        <v>15.285</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>16.643999999999998</v>
+        <v>15.334</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>16.823</v>
+        <v>15.387</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>16.856000000000002</v>
+        <v>15.406000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16.899999999999999</v>
+        <v>15.478</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16.943999999999999</v>
+        <v>15.484</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>16.966000000000001</v>
+        <v>15.484</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>17.065000000000001</v>
+        <v>15.586</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>17.228000000000002</v>
+        <v>15.628</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>17.282</v>
+        <v>15.634</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>17.282</v>
+        <v>15.646000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>17.303000000000001</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>17.346</v>
+        <v>15.693</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>17.420999999999999</v>
+        <v>15.693</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>17.431999999999999</v>
+        <v>15.699</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>17.454000000000001</v>
+        <v>15.711</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>17.527999999999999</v>
+        <v>15.776</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>17.539000000000001</v>
+        <v>15.776</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>17.559999999999999</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17.591999999999999</v>
+        <v>15.952</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17.623999999999999</v>
+        <v>15.958</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>17.75</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>17.75</v>
+        <v>16.085999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>17.782</v>
+        <v>16.109000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>17.792000000000002</v>
+        <v>16.126000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17.803000000000001</v>
+        <v>16.132000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17.812999999999999</v>
+        <v>16.132000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>17.812999999999999</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>17.949000000000002</v>
+        <v>16.167000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>17.969000000000001</v>
+        <v>16.195</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>18</v>
+        <v>16.206</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>18.073</v>
+        <v>16.282</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>18.093</v>
+        <v>16.315999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>18.114000000000001</v>
+        <v>16.361999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>18.206</v>
+        <v>16.388999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>18.236999999999998</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>18.277999999999999</v>
+        <v>16.407</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>18.38</v>
+        <v>16.457000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>18.521000000000001</v>
+        <v>16.457000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>18.530999999999999</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>18.550999999999998</v>
+        <v>16.501999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>18.831</v>
+        <v>16.513000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>19.018000000000001</v>
+        <v>16.524999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>19.125</v>
+        <v>16.565999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>19.309999999999999</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>19.309999999999999</v>
+        <v>16.611000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>19.376999999999999</v>
+        <v>16.632999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>19.672999999999998</v>
+        <v>16.637</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>19.701000000000001</v>
+        <v>16.643999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>19.899000000000001</v>
+        <v>16.693000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>19.937000000000001</v>
+        <v>16.748000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>19.946000000000002</v>
+        <v>16.823</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>19.946000000000002</v>
+        <v>16.856000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>19.983000000000001</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>20.021000000000001</v>
+        <v>16.943999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>20.03</v>
+        <v>16.957999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>20.03</v>
+        <v>16.966000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>20.067</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>20.085999999999999</v>
+        <v>16.991</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>20.085999999999999</v>
+        <v>17.013000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>20.113</v>
+        <v>17.035</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>20.215</v>
+        <v>17.045000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>20.242999999999999</v>
+        <v>17.065000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>20.399000000000001</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>20.68</v>
+        <v>17.164999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>20.689</v>
+        <v>17.228000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>20.841999999999999</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>20.992999999999999</v>
+        <v>17.273</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>21.038</v>
+        <v>17.282</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>21.178999999999998</v>
+        <v>17.282</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>21.231999999999999</v>
+        <v>17.303000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>21.337</v>
+        <v>17.346</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>21.353999999999999</v>
+        <v>17.390999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>21.363</v>
+        <v>17.402000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>21.64</v>
+        <v>17.420999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>21.760999999999999</v>
+        <v>17.431999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>21.760999999999999</v>
+        <v>17.454000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>21.812000000000001</v>
+        <v>17.466000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>21.863</v>
+        <v>17.527999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>21.905999999999999</v>
+        <v>17.539000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>21.965</v>
+        <v>17.559999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>22.042000000000002</v>
+        <v>17.582999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>22.117999999999999</v>
+        <v>17.591999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>22.251999999999999</v>
+        <v>17.623999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>22.335999999999999</v>
+        <v>17.635000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>22.484999999999999</v>
+        <v>17.646000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>22.518999999999998</v>
+        <v>17.667000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>22.585000000000001</v>
+        <v>17.678000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>22.600999999999999</v>
+        <v>17.687999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>22.7</v>
+        <v>17.741</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>22.748999999999999</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>22.838999999999999</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>22.920999999999999</v>
+        <v>17.771999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>22.928999999999998</v>
+        <v>17.782</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>22.945</v>
+        <v>17.792000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>23.170999999999999</v>
+        <v>17.803000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>23.577999999999999</v>
+        <v>17.812999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>23.97</v>
+        <v>17.812999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>24.577000000000002</v>
+        <v>17.844999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>24.742999999999999</v>
+        <v>17.844999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>24.818999999999999</v>
+        <v>17.866</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
+        <v>17.866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>17.949000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>17.969000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>18.032</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>18.073</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>18.082999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>18.093</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>18.114000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>18.123999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>18.145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>18.155000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>18.196000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>18.206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>18.206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>18.236999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>18.257000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>18.277999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>18.288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>18.318000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>18.521000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>18.530999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>18.550999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>18.798999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>18.831</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>18.908000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>18.908000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>18.986999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>19.015999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>19.018000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>19.065000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>19.065000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>19.125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>19.297000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>19.376999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>19.393999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>19.422000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>19.460999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>19.460999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>19.574999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>19.585000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>19.603000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>19.672999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>19.689</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>19.701000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>19.725999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>19.745000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>19.774000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>19.774000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>19.821000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>19.899000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>19.922999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>19.933</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>19.937000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>19.946000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>19.946000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>19.960999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>19.983000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>19.989000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>20.021000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>20.067</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>20.085999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>20.085999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>20.113</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>20.192</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>20.215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>20.228999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>20.238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>20.242999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20.283999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>20.294</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>20.312000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20.393999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>20.399000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>20.684000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20.689</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>20.728999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>20.765000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>20.841999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>20.986999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>20.992999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>21.004999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>21.038</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>21.058</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>21.178999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>21.231999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>21.321999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>21.337</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>21.353999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>21.363</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>21.513000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>21.684999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>21.760999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>21.760999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>21.812000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>21.863</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>21.905999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>21.914999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>21.965</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>22.042000000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>22.059000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>22.117999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>22.251999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>22.318999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>22.335999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>22.369</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>22.484999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>22.518999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>22.542999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>22.585000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>22.600999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>22.673999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>22.748999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>22.838999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>22.920999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>22.928999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>22.934999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>22.943999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>22.945</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>23.152999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>23.170999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>23.353000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>23.577999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>23.725000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>23.888999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>23.904</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>24.106000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>24.120999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>24.335999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>24.577000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>24.742999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>24.818999999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
         <v>25.006</v>
       </c>
     </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>26.782</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A155">
+  <sortState ref="A1:A283">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Measurement_Results/TEM/1.24.xlsx
+++ b/Measurement_Results/TEM/1.24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
   <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,20 +405,20 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <f>AVERAGE(A14:A283)</f>
-        <v>18.902922222222234</v>
+        <f>AVERAGE(A1:A283)</f>
+        <v>18.290353356890474</v>
       </c>
       <c r="E5">
-        <f>STDEV(A14:A283)</f>
-        <v>2.6309801680144509</v>
+        <f>STDEV(A1:A283)</f>
+        <v>3.8246784793548918</v>
       </c>
       <c r="F5">
         <f>E5/SQRT(G5)</f>
-        <v>0.16011635404113853</v>
+        <v>0.22735353667273081</v>
       </c>
       <c r="G5">
-        <f>COUNT(A14:A283)</f>
-        <v>270</v>
+        <f>COUNT(A1:A283)</f>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
